--- a/homework/task3/testing_scenario_2.xlsx
+++ b/homework/task3/testing_scenario_2.xlsx
@@ -2580,12 +2580,12 @@
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A88:J88"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I57 I69:I79 I81 I83 I85 I87 I89">
+  <conditionalFormatting sqref="I1:I90">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I57 I69:I79 I81 I83 I85 I87 I89">
+  <conditionalFormatting sqref="I1:I90">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
